--- a/frontend-cemos/public/assets/content/direito/8-cnudm/script/vf3.xlsx
+++ b/frontend-cemos/public/assets/content/direito/8-cnudm/script/vf3.xlsx
@@ -488,22 +488,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Parte III</t>
+          <t>Parte III - Estreitos Utilizados para a Navegação Internacional</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>O regime de passagem pelos estreitos não afeta a soberania ou a jurisdição dos Estados ribeirinhos sobre as águas, espaço aéreo, leito e subsolo.</t>
+          <t>O regime de passagem em trânsito não afeta o exercício, pelos Estados ribeirinhos, da sua soberania ou jurisdição sobre as águas, leito, subsolo e espaço aéreo do estreito.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>O estabelecimento do regime de passagem em trânsito transforma as águas do estreito em águas internacionais, retirando a soberania do Estado ribeirinho.</t>
+          <t>A aplicação do regime de passagem em trânsito transforma as águas do estreito em alto mar, retirando a soberania do Estado ribeirinho sobre o leito e o subsolo.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>O Artigo 34 estabelece que o regime de passagem não afeta a soberania ou jurisdição do Estado ribeirinho sobre tais áreas.</t>
+          <t>Conforme o **Artigo 34, parágrafo 1**, o regime de passagem não afeta a soberania ou jurisdição do Estado ribeirinho sobre essas áreas.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -522,22 +522,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Parte III</t>
+          <t>Parte III - Estreitos Utilizados para a Navegação Internacional</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A Parte III da Convenção não se aplica a um estreito se houver uma rota de alto mar ou ZEE igualmente conveniente através dele.</t>
+          <t>A Parte III da Convenção não se aplica a um estreito se houver uma rota de alto mar ou ZEE igualmente conveniente pelas características hidrográficas e de navegação.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>O regime de passagem em trânsito aplica-se a todos os estreitos internacionais, mesmo que exista uma rota alternativa de alto mar conveniente pelo meio do estreito.</t>
+          <t>O regime de passagem em trânsito aplica-se obrigatoriamente a todos os estreitos internacionais, mesmo que exista uma rota alternativa conveniente pelo alto mar.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>O Artigo 36 exclui a aplicação desta Parte se houver rota de alto mar ou ZEE igualmente conveniente.</t>
+          <t>Segundo o **Artigo 36**, a Parte III não se aplica se houver rota de alto mar ou ZEE igualmente conveniente.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -556,22 +556,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Parte III</t>
+          <t>Parte III - Estreitos Utilizados para a Navegação Internacional</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Passagem em trânsito significa o exercício da liberdade de navegação e sobrevoo exclusivamente para fins de trânsito contínuo e rápido.</t>
+          <t>A 'passagem em trânsito' é definida como o exercício da liberdade de navegação e sobrevoo exclusivamente para fins de trânsito contínuo e rápido pelo estreito.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A passagem em trânsito permite que navios parem, fundeiem ou pairam indefinidamente no estreito, independentemente do objetivo de travessia.</t>
+          <t>A 'passagem em trânsito' permite que navios realizem exercícios militares e paradas turísticas, desde que não bloqueiem o canal de navegação.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>O Artigo 38 define a passagem em trânsito como o exercício da liberdade exclusivamente para fins de trânsito contínuo e rápido.</t>
+          <t>De acordo com o **Artigo 38, parágrafo 2**, a passagem em trânsito é exclusivamente para fins de trânsito contínuo e rápido.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -590,22 +590,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Parte III</t>
+          <t>Parte III - Estreitos Utilizados para a Navegação Internacional</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Durante a passagem em trânsito, navios de investigação científica não podem efetuar atividades de pesquisa sem autorização prévia.</t>
+          <t>Durante a passagem em trânsito, navios e aeronaves devem abster-se de qualquer ameaça ou uso da força contra a soberania do Estado ribeirinho.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Navios de pesquisa científica têm liberdade total para realizar coletas e levantamentos hidrográficos durante a passagem em trânsito sem necessidade de aviso.</t>
+          <t>Navios de guerra em passagem em trânsito têm autorização para realizar exercícios de tiro e uso de força, dado o caráter internacional do estreito.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>O Artigo 40 proíbe atividades de investigação ou levantamentos sem autorização prévia dos Estados ribeirinhos.</t>
+          <t>O **Artigo 39, parágrafo 1, alínea b**, proíbe expressamente qualquer ameaça ou uso da força contra a soberania do Estado ribeirinho.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -624,22 +624,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Parte III</t>
+          <t>Parte III - Estreitos Utilizados para a Navegação Internacional</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Antes de estabelecer sistemas de separação de tráfego, os Estados ribeirinhos devem submeter suas propostas à organização internacional competente para adoção.</t>
+          <t>Navios de investigação científica marinha não podem efetuar atividades de investigação durante a passagem em trânsito sem autorização prévia dos Estados ribeirinhos.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Os Estados ribeirinhos têm autonomia absoluta para criar e impor unilateralmente qualquer sistema de separação de tráfego sem consultar organizações internacionais.</t>
+          <t>Navios de pesquisa podem realizar levantamentos hidrográficos livremente durante a passagem em trânsito, sem necessidade de notificar o Estado ribeirinho.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>O Artigo 41 exige que as propostas sejam submetidas à organização internacional competente (como a OMI) para adoção antes da implementação.</t>
+          <t>Conforme o **Artigo 40**, navios estrangeiros não podem efetuar atividades de investigação sem autorização prévia.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -658,22 +658,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Parte III</t>
+          <t>Parte III - Estreitos Utilizados para a Navegação Internacional</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>As aeronaves em passagem em trânsito devem manter sempre sintonizada a radiofrequência de controle de tráfego aéreo ou de socorro internacional.</t>
+          <t>Antes de designar rotas marítimas em estreitos, os Estados ribeirinhos devem submeter suas propostas à organização internacional competente para adoção.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Aeronaves em passagem em trânsito podem manter silêncio de rádio total e desligar equipamentos de comunicação para garantir o sigilo da operação.</t>
+          <t>Os Estados ribeirinhos possuem autonomia total para criar e impor rotas marítimas em estreitos internacionais sem consultar qualquer organização internacional.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>O Artigo 39 impõe o dever às aeronaves de monitorar as frequências de controle de tráfego ou de socorro.</t>
+          <t>Segundo o **Artigo 41, parágrafo 4**, os Estados devem submeter propostas à organização internacional competente antes de designar rotas.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -692,22 +692,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Parte III</t>
+          <t>Parte III - Estreitos Utilizados para a Navegação Internacional</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>As leis e regulamentos do Estado ribeirinho sobre a passagem em trânsito não podem fazer discriminação de direito ou de fato entre navios estrangeiros.</t>
+          <t>As leis e regulamentos dos Estados ribeirinhos sobre a passagem em trânsito não farão discriminação de direito ou de fato entre navios estrangeiros.</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>O Estado ribeirinho pode criar leis de passagem em trânsito que imponham restrições específicas apenas a navios de determinadas bandeiras não aliadas.</t>
+          <t>O Estado ribeirinho pode criar leis que discriminem navios de determinadas bandeiras, proibindo sua passagem em trânsito por razões políticas.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>O Artigo 42 proíbe expressamente a discriminação de direito ou de fato entre navios estrangeiros.</t>
+          <t>O **Artigo 42, parágrafo 2**, estabelece que tais leis e regulamentos não farão discriminação de direito ou de fato.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -726,22 +726,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Parte III</t>
+          <t>Parte III - Estreitos Utilizados para a Navegação Internacional</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Não haverá nenhuma suspensão da passagem em trânsito pelos estreitos utilizados para a navegação internacional.</t>
+          <t>Os Estados ribeirinhos não impedirão a passagem em trânsito e não haverá nenhuma suspensão de tal passagem.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>O Estado ribeirinho pode suspender temporariamente a passagem em trânsito se considerar necessário para sua segurança nacional, mediante aviso prévio.</t>
+          <t>Assim como no mar territorial, os Estados ribeirinhos podem suspender temporariamente a passagem em trânsito em estreitos por motivos de segurança.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>O Artigo 44 é taxativo ao afirmar que não haverá nenhuma suspensão da passagem em trânsito.</t>
+          <t>Conforme o **Artigo 44**, não haverá nenhuma suspensão da passagem em trânsito (diferente da passagem inocente no mar territorial).</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -760,22 +760,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Parte III</t>
+          <t>Parte III - Estreitos Utilizados para a Navegação Internacional</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>O regime de passagem inocente aplica-se a estreitos situados entre uma parte de alto mar e o mar territorial de um Estado estrangeiro, sem possibilidade de suspensão.</t>
+          <t>O regime de passagem inocente aplica-se a estreitos situados entre uma parte de alto mar (ou ZEE) e o mar territorial de um Estado estrangeiro.</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Em estreitos que levam apenas ao mar territorial de outro Estado ("beco sem saída"), o Estado ribeirinho pode suspender a passagem inocente por motivos de segurança.</t>
+          <t>O regime de passagem em trânsito aplica-se a todos os estreitos, inclusive aqueles que levam a um mar territorial de outro Estado (estreitos "sem saída" para o alto mar).</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>O Artigo 45 determina que não haverá suspensão da passagem inocente em tais estreitos.</t>
+          <t>De acordo com o **Artigo 45, parágrafo 1, alínea b**, aplica-se a passagem inocente (não trânsito) em estreitos entre alto mar e mar territorial de Estado estrangeiro.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
